--- a/2025-26 free throws.xlsx
+++ b/2025-26 free throws.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31f55b0ab6c56897/Documents/Basketball/2025-2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{ECB90B1E-1FBA-478A-BF69-C6D20A1A8A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7738756D-012C-4C20-AD48-1E630C073F55}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="8_{ECB90B1E-1FBA-478A-BF69-C6D20A1A8A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCAFB8CC-3666-4F9E-8426-950193EC5899}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{DA0CB4A1-1F9D-4426-9D49-D630E926C42B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DA0CB4A1-1F9D-4426-9D49-D630E926C42B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -251,28 +252,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91113395-BB71-4AC0-8DA0-B2163C693F4A}">
   <dimension ref="A1:AV355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,82 +634,82 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13" t="s">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13" t="s">
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13" t="s">
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13" t="s">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13" t="s">
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13" t="s">
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13" t="s">
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13" t="s">
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13" t="s">
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13" t="s">
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13" t="s">
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AV1" s="13"/>
+      <c r="AV1" s="12"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -718,10 +719,10 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
@@ -841,20 +842,20 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H9" si="0">SUM(K3,M3,O3,Q3,S3,U3,W3,Y3,AA3,AC3,AE3,AG3,AI3,AK3,AM3,AO3,AQ3,AS3,AU3)/SUM(L3,N3,P3,R3,T3,V3,X3,Z3,AB3,AD3,AF3,AH3,AJ3,AL3,AN3,AP3,AR3,AT3,AV3)</f>
         <v>0.76315789473684215</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="8">
         <v>45916</v>
       </c>
@@ -975,20 +976,20 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16">
         <f>SUM(K3:K1000)/SUM(L3:L1000)</f>
         <v>0.875</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="H4" s="16">
+      <c r="F4" s="15"/>
+      <c r="H4" s="13">
         <f t="shared" si="0"/>
         <v>0.69230769230769229</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="8">
         <v>45916</v>
       </c>
@@ -1109,20 +1110,20 @@
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14">
+      <c r="C5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18">
         <f>SUM(M3:M1000)/SUM(N3:N1000)</f>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="H5" s="16">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="8">
         <v>45916</v>
       </c>
@@ -1243,20 +1244,20 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="19">
+      <c r="D6" s="17"/>
+      <c r="E6" s="16">
         <f>SUM(O3:O1002)/SUM(P3:P1002)</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="H6" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>0.75641025641025639</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="8">
         <v>45918</v>
       </c>
@@ -1377,20 +1378,20 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="19">
+      <c r="C7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16">
         <f>SUM(Q3:Q1003)/SUM(R3:R1003)</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="H7" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>0.71052631578947367</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="8">
         <v>45923</v>
       </c>
@@ -1511,20 +1512,20 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14">
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
         <f>SUM(S3:S1003)/SUM(T3:T1003)</f>
-        <v>0.64</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="H8" s="16">
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>0.76315789473684215</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="8">
         <v>45923</v>
       </c>
@@ -1645,20 +1646,20 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="19">
+      <c r="C9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16">
         <f>SUM(U3:U1005)/SUM(V3:V1005)</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="H9" s="16">
+        <v>0.71875</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="8">
         <v>45923</v>
       </c>
@@ -1779,20 +1780,20 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="19">
+      <c r="D10" s="17"/>
+      <c r="E10" s="16">
         <f>SUM(W3:W1006)/SUM(X3:X1006)</f>
-        <v>0.75</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="H10" s="16">
+        <v>0.71875</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="H10" s="13">
         <f t="shared" ref="H10" si="1">SUM(K10,M10,O10,Q10,S10,U10,W10,Y10,AA10,AC10,AE10,AG10,AI10,AK10,AM10,AO10,AQ10,AS10,AU10)/SUM(L10,N10,P10,R10,T10,V10,X10,Z10,AB10,AD10,AF10,AH10,AJ10,AL10,AN10,AP10,AR10,AT10,AV10)</f>
         <v>0.60526315789473684</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="8">
         <v>45925</v>
       </c>
@@ -1913,20 +1914,20 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19">
+      <c r="D11" s="17"/>
+      <c r="E11" s="16">
         <f>SUM(Y3:Y1007)/SUM(Z3:Z1007)</f>
-        <v>0.84</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="H11" s="16">
+        <v>0.78787878787878785</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="H11" s="13">
         <f t="shared" ref="H11" si="2">SUM(K11,M11,O11,Q11,S11,U11,W11,Y11,AA11,AC11,AE11,AG11,AI11,AK11,AM11,AO11,AQ11,AS11,AU11)/SUM(L11,N11,P11,R11,T11,V11,X11,Z11,AB11,AD11,AF11,AH11,AJ11,AL11,AN11,AP11,AR11,AT11,AV11)</f>
         <v>0.68421052631578949</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="8">
         <v>45925</v>
       </c>
@@ -2047,1555 +2048,2239 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="19">
+      <c r="D12" s="17"/>
+      <c r="E12" s="16">
         <f>SUM(AA3:AA1008)/SUM(AB3:AB1008)</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13">
+        <f t="shared" ref="H12" si="3">SUM(K12,M12,O12,Q12,S12,U12,W12,Y12,AA12,AC12,AE12,AG12,AI12,AK12,AM12,AO12,AQ12,AS12,AU12)/SUM(L12,N12,P12,R12,T12,V12,X12,Z12,AB12,AD12,AF12,AH12,AJ12,AL12,AN12,AP12,AR12,AT12,AV12)</f>
+        <v>0.65</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="8">
+        <v>45930</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
+      </c>
+      <c r="AG12">
+        <v>2</v>
+      </c>
+      <c r="AH12">
+        <v>6</v>
+      </c>
+      <c r="AI12">
+        <v>3</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AK12">
+        <v>3</v>
+      </c>
+      <c r="AL12">
+        <v>4</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>4</v>
+      </c>
+      <c r="AO12">
+        <v>2</v>
+      </c>
+      <c r="AP12">
+        <v>4</v>
+      </c>
+      <c r="AQ12">
+        <v>4</v>
+      </c>
+      <c r="AR12">
+        <v>4</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>4</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="19" t="e">
-        <f t="shared" ref="E12:E23" si="3">SUM(K12:K1009)/SUM(L12:L1009)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16">
+        <f t="shared" ref="E13:E23" si="4">SUM(K12:K1009)/SUM(L12:L1009)</f>
+        <v>0.875</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="H13" s="13">
+        <f t="shared" ref="H13" si="5">SUM(K13,M13,O13,Q13,S13,U13,W13,Y13,AA13,AC13,AE13,AG13,AI13,AK13,AM13,AO13,AQ13,AS13,AU13)/SUM(L13,N13,P13,R13,T13,V13,X13,Z13,AB13,AD13,AF13,AH13,AJ13,AL13,AN13,AP13,AR13,AT13,AV13)</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="8">
+        <v>45930</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>2</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>2</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>2</v>
+      </c>
+      <c r="AO13">
+        <v>2</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>2</v>
+      </c>
+      <c r="AS13">
+        <v>2</v>
+      </c>
+      <c r="AT13">
+        <v>2</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="H14" s="13">
+        <f t="shared" ref="H14" si="6">SUM(K14,M14,O14,Q14,S14,U14,W14,Y14,AA14,AC14,AE14,AG14,AI14,AK14,AM14,AO14,AQ14,AS14,AU14)/SUM(L14,N14,P14,R14,T14,V14,X14,Z14,AB14,AD14,AF14,AH14,AJ14,AL14,AN14,AP14,AR14,AT14,AV14)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="8">
+        <v>45930</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>2</v>
+      </c>
+      <c r="AI14">
+        <v>2</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
+        <v>4</v>
+      </c>
+      <c r="AL14">
+        <v>4</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>2</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>2</v>
+      </c>
+      <c r="AS14">
+        <v>2</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19" t="e">
-        <f t="shared" si="3"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19" t="e">
-        <f t="shared" si="3"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="19" t="e">
-        <f t="shared" si="3"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="19" t="e">
-        <f t="shared" si="3"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="F19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="19" t="e">
-        <f t="shared" si="3"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="19" t="e">
-        <f t="shared" si="3"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="F21" s="15"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19" t="e">
-        <f t="shared" si="3"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="F22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19" t="e">
-        <f t="shared" si="3"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="16" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="F23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="e">
-        <f t="shared" ref="E24" si="4">SUM(O21:O1020)/SUM(P21:P1020)</f>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16" t="e">
+        <f t="shared" ref="E24" si="7">SUM(O21:O1020)/SUM(P21:P1020)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="F24" s="15"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
     </row>
     <row r="120" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
     </row>
     <row r="121" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
     </row>
     <row r="122" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
     </row>
     <row r="123" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
     </row>
     <row r="124" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
     </row>
     <row r="125" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
     </row>
     <row r="126" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
     </row>
     <row r="127" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
     </row>
     <row r="128" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
     </row>
     <row r="130" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
     </row>
     <row r="131" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
     </row>
     <row r="132" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
     </row>
     <row r="133" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
     </row>
     <row r="134" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
     </row>
     <row r="135" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
     </row>
     <row r="136" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
     </row>
     <row r="137" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
     </row>
     <row r="138" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
     </row>
     <row r="139" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
     </row>
     <row r="140" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
     </row>
     <row r="141" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
     </row>
     <row r="142" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
     </row>
     <row r="143" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
     </row>
     <row r="144" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
     </row>
     <row r="145" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
     </row>
     <row r="146" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
     </row>
     <row r="147" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
     </row>
     <row r="148" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
     </row>
     <row r="149" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
     </row>
     <row r="150" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
     </row>
     <row r="151" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
     </row>
     <row r="152" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
     </row>
     <row r="153" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
     </row>
     <row r="154" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
     </row>
     <row r="155" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
     </row>
     <row r="156" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
     </row>
     <row r="157" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
     </row>
     <row r="158" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
     </row>
     <row r="159" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
     </row>
     <row r="160" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
     </row>
     <row r="161" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
     </row>
     <row r="162" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
     </row>
     <row r="163" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
     </row>
     <row r="164" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
     </row>
     <row r="165" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
     </row>
     <row r="166" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
     </row>
     <row r="167" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
     </row>
     <row r="168" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
     </row>
     <row r="169" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H169" s="12"/>
-      <c r="I169" s="12"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
     </row>
     <row r="170" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
     </row>
     <row r="171" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="14"/>
     </row>
     <row r="172" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
     </row>
     <row r="173" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="14"/>
     </row>
     <row r="174" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="14"/>
     </row>
     <row r="175" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="14"/>
     </row>
     <row r="176" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
     </row>
     <row r="177" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H177" s="12"/>
-      <c r="I177" s="12"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="14"/>
     </row>
     <row r="178" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
     </row>
     <row r="179" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="14"/>
     </row>
     <row r="180" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H180" s="12"/>
-      <c r="I180" s="12"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
     </row>
     <row r="181" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
     </row>
     <row r="182" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
     </row>
     <row r="183" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H183" s="12"/>
-      <c r="I183" s="12"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
     </row>
     <row r="184" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H184" s="12"/>
-      <c r="I184" s="12"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
     </row>
     <row r="185" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H185" s="12"/>
-      <c r="I185" s="12"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
     </row>
     <row r="186" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
     </row>
     <row r="187" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H187" s="12"/>
-      <c r="I187" s="12"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
     </row>
     <row r="188" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H188" s="12"/>
-      <c r="I188" s="12"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="14"/>
     </row>
     <row r="189" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="14"/>
     </row>
     <row r="190" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H190" s="12"/>
-      <c r="I190" s="12"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="14"/>
     </row>
     <row r="191" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
     </row>
     <row r="192" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H192" s="12"/>
-      <c r="I192" s="12"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="14"/>
     </row>
     <row r="193" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H193" s="12"/>
-      <c r="I193" s="12"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
     </row>
     <row r="194" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H194" s="12"/>
-      <c r="I194" s="12"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="14"/>
     </row>
     <row r="195" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H195" s="12"/>
-      <c r="I195" s="12"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="14"/>
     </row>
     <row r="196" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H196" s="12"/>
-      <c r="I196" s="12"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="14"/>
     </row>
     <row r="197" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="14"/>
     </row>
     <row r="198" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="14"/>
     </row>
     <row r="199" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H199" s="12"/>
-      <c r="I199" s="12"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="14"/>
     </row>
     <row r="200" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H200" s="12"/>
-      <c r="I200" s="12"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="14"/>
     </row>
     <row r="201" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="14"/>
     </row>
     <row r="202" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H202" s="12"/>
-      <c r="I202" s="12"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="14"/>
     </row>
     <row r="203" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H203" s="12"/>
-      <c r="I203" s="12"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="14"/>
     </row>
     <row r="204" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="14"/>
     </row>
     <row r="205" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H205" s="12"/>
-      <c r="I205" s="12"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="14"/>
     </row>
     <row r="206" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H206" s="12"/>
-      <c r="I206" s="12"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="14"/>
     </row>
     <row r="207" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H207" s="12"/>
-      <c r="I207" s="12"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="14"/>
     </row>
     <row r="208" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H208" s="12"/>
-      <c r="I208" s="12"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="14"/>
     </row>
     <row r="209" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H209" s="12"/>
-      <c r="I209" s="12"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="14"/>
     </row>
     <row r="210" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H210" s="12"/>
-      <c r="I210" s="12"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="14"/>
     </row>
     <row r="211" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H211" s="12"/>
-      <c r="I211" s="12"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="14"/>
     </row>
     <row r="212" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H212" s="12"/>
-      <c r="I212" s="12"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="14"/>
     </row>
     <row r="213" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H213" s="12"/>
-      <c r="I213" s="12"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="14"/>
     </row>
     <row r="214" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H214" s="12"/>
-      <c r="I214" s="12"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="14"/>
     </row>
     <row r="215" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="14"/>
     </row>
     <row r="216" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H216" s="12"/>
-      <c r="I216" s="12"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="14"/>
     </row>
     <row r="217" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H217" s="12"/>
-      <c r="I217" s="12"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="14"/>
     </row>
     <row r="218" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="14"/>
     </row>
     <row r="219" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H219" s="12"/>
-      <c r="I219" s="12"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="14"/>
     </row>
     <row r="220" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H220" s="12"/>
-      <c r="I220" s="12"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="14"/>
     </row>
     <row r="221" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H221" s="12"/>
-      <c r="I221" s="12"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="14"/>
     </row>
     <row r="222" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="14"/>
     </row>
     <row r="223" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H223" s="12"/>
-      <c r="I223" s="12"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="14"/>
     </row>
     <row r="224" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="14"/>
     </row>
     <row r="225" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="14"/>
     </row>
     <row r="226" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="14"/>
     </row>
     <row r="227" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
+      <c r="H227" s="14"/>
+      <c r="I227" s="14"/>
     </row>
     <row r="228" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="14"/>
     </row>
     <row r="229" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H229" s="12"/>
-      <c r="I229" s="12"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="14"/>
     </row>
     <row r="230" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H230" s="12"/>
-      <c r="I230" s="12"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="14"/>
     </row>
     <row r="231" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="14"/>
     </row>
     <row r="232" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H232" s="12"/>
-      <c r="I232" s="12"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="14"/>
     </row>
     <row r="233" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H233" s="12"/>
-      <c r="I233" s="12"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="14"/>
     </row>
     <row r="234" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H234" s="12"/>
-      <c r="I234" s="12"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="14"/>
     </row>
     <row r="235" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H235" s="12"/>
-      <c r="I235" s="12"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="14"/>
     </row>
     <row r="236" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="14"/>
     </row>
     <row r="237" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H237" s="12"/>
-      <c r="I237" s="12"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="14"/>
     </row>
     <row r="238" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H238" s="12"/>
-      <c r="I238" s="12"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="14"/>
     </row>
     <row r="239" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H239" s="12"/>
-      <c r="I239" s="12"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="14"/>
     </row>
     <row r="240" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H240" s="12"/>
-      <c r="I240" s="12"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="14"/>
     </row>
     <row r="241" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="14"/>
     </row>
     <row r="242" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H242" s="12"/>
-      <c r="I242" s="12"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="14"/>
     </row>
     <row r="243" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H243" s="12"/>
-      <c r="I243" s="12"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="14"/>
     </row>
     <row r="244" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H244" s="12"/>
-      <c r="I244" s="12"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="14"/>
     </row>
     <row r="245" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H245" s="12"/>
-      <c r="I245" s="12"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="14"/>
     </row>
     <row r="246" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H246" s="12"/>
-      <c r="I246" s="12"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="14"/>
     </row>
     <row r="247" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H247" s="12"/>
-      <c r="I247" s="12"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="14"/>
     </row>
     <row r="248" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H248" s="12"/>
-      <c r="I248" s="12"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="14"/>
     </row>
     <row r="249" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H249" s="12"/>
-      <c r="I249" s="12"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="14"/>
     </row>
     <row r="250" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H250" s="12"/>
-      <c r="I250" s="12"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="14"/>
     </row>
     <row r="251" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H251" s="12"/>
-      <c r="I251" s="12"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="14"/>
     </row>
     <row r="252" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H252" s="12"/>
-      <c r="I252" s="12"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="14"/>
     </row>
     <row r="253" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H253" s="12"/>
-      <c r="I253" s="12"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="14"/>
     </row>
     <row r="254" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H254" s="12"/>
-      <c r="I254" s="12"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="14"/>
     </row>
     <row r="255" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H255" s="12"/>
-      <c r="I255" s="12"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="14"/>
     </row>
     <row r="256" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H256" s="12"/>
-      <c r="I256" s="12"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="14"/>
     </row>
     <row r="257" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H257" s="12"/>
-      <c r="I257" s="12"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="14"/>
     </row>
     <row r="258" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H258" s="12"/>
-      <c r="I258" s="12"/>
+      <c r="H258" s="14"/>
+      <c r="I258" s="14"/>
     </row>
     <row r="259" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H259" s="12"/>
-      <c r="I259" s="12"/>
+      <c r="H259" s="14"/>
+      <c r="I259" s="14"/>
     </row>
     <row r="260" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H260" s="12"/>
-      <c r="I260" s="12"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="14"/>
     </row>
     <row r="261" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H261" s="12"/>
-      <c r="I261" s="12"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14"/>
     </row>
     <row r="262" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H262" s="12"/>
-      <c r="I262" s="12"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="14"/>
     </row>
     <row r="263" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H263" s="12"/>
-      <c r="I263" s="12"/>
+      <c r="H263" s="14"/>
+      <c r="I263" s="14"/>
     </row>
     <row r="264" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H264" s="12"/>
-      <c r="I264" s="12"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="14"/>
     </row>
     <row r="265" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H265" s="12"/>
-      <c r="I265" s="12"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="14"/>
     </row>
     <row r="266" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H266" s="12"/>
-      <c r="I266" s="12"/>
+      <c r="H266" s="14"/>
+      <c r="I266" s="14"/>
     </row>
     <row r="267" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H267" s="12"/>
-      <c r="I267" s="12"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="14"/>
     </row>
     <row r="268" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H268" s="12"/>
-      <c r="I268" s="12"/>
+      <c r="H268" s="14"/>
+      <c r="I268" s="14"/>
     </row>
     <row r="269" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H269" s="12"/>
-      <c r="I269" s="12"/>
+      <c r="H269" s="14"/>
+      <c r="I269" s="14"/>
     </row>
     <row r="270" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H270" s="12"/>
-      <c r="I270" s="12"/>
+      <c r="H270" s="14"/>
+      <c r="I270" s="14"/>
     </row>
     <row r="271" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H271" s="12"/>
-      <c r="I271" s="12"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="14"/>
     </row>
     <row r="272" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H272" s="12"/>
-      <c r="I272" s="12"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="14"/>
     </row>
     <row r="273" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H273" s="12"/>
-      <c r="I273" s="12"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="14"/>
     </row>
     <row r="274" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H274" s="12"/>
-      <c r="I274" s="12"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="14"/>
     </row>
     <row r="275" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H275" s="12"/>
-      <c r="I275" s="12"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="14"/>
     </row>
     <row r="276" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H276" s="12"/>
-      <c r="I276" s="12"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="14"/>
     </row>
     <row r="277" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H277" s="12"/>
-      <c r="I277" s="12"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="14"/>
     </row>
     <row r="278" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H278" s="12"/>
-      <c r="I278" s="12"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="14"/>
     </row>
     <row r="279" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H279" s="12"/>
-      <c r="I279" s="12"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="14"/>
     </row>
     <row r="280" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H280" s="12"/>
-      <c r="I280" s="12"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="14"/>
     </row>
     <row r="281" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H281" s="12"/>
-      <c r="I281" s="12"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="14"/>
     </row>
     <row r="282" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H282" s="12"/>
-      <c r="I282" s="12"/>
+      <c r="H282" s="14"/>
+      <c r="I282" s="14"/>
     </row>
     <row r="283" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H283" s="12"/>
-      <c r="I283" s="12"/>
+      <c r="H283" s="14"/>
+      <c r="I283" s="14"/>
     </row>
     <row r="284" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H284" s="12"/>
-      <c r="I284" s="12"/>
+      <c r="H284" s="14"/>
+      <c r="I284" s="14"/>
     </row>
     <row r="285" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H285" s="12"/>
-      <c r="I285" s="12"/>
+      <c r="H285" s="14"/>
+      <c r="I285" s="14"/>
     </row>
     <row r="286" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H286" s="12"/>
-      <c r="I286" s="12"/>
+      <c r="H286" s="14"/>
+      <c r="I286" s="14"/>
     </row>
     <row r="287" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H287" s="12"/>
-      <c r="I287" s="12"/>
+      <c r="H287" s="14"/>
+      <c r="I287" s="14"/>
     </row>
     <row r="288" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H288" s="12"/>
-      <c r="I288" s="12"/>
+      <c r="H288" s="14"/>
+      <c r="I288" s="14"/>
     </row>
     <row r="289" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H289" s="12"/>
-      <c r="I289" s="12"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="14"/>
     </row>
     <row r="290" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H290" s="12"/>
-      <c r="I290" s="12"/>
+      <c r="H290" s="14"/>
+      <c r="I290" s="14"/>
     </row>
     <row r="291" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H291" s="12"/>
-      <c r="I291" s="12"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="14"/>
     </row>
     <row r="292" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H292" s="12"/>
-      <c r="I292" s="12"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="14"/>
     </row>
     <row r="293" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H293" s="12"/>
-      <c r="I293" s="12"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="14"/>
     </row>
     <row r="294" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H294" s="12"/>
-      <c r="I294" s="12"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="14"/>
     </row>
     <row r="295" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H295" s="12"/>
-      <c r="I295" s="12"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="14"/>
     </row>
     <row r="296" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H296" s="12"/>
-      <c r="I296" s="12"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="14"/>
     </row>
     <row r="297" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H297" s="12"/>
-      <c r="I297" s="12"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="14"/>
     </row>
     <row r="298" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H298" s="12"/>
-      <c r="I298" s="12"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="14"/>
     </row>
     <row r="299" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H299" s="12"/>
-      <c r="I299" s="12"/>
+      <c r="H299" s="14"/>
+      <c r="I299" s="14"/>
     </row>
     <row r="300" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H300" s="12"/>
-      <c r="I300" s="12"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="14"/>
     </row>
     <row r="301" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H301" s="12"/>
-      <c r="I301" s="12"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="14"/>
     </row>
     <row r="302" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H302" s="12"/>
-      <c r="I302" s="12"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="14"/>
     </row>
     <row r="303" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H303" s="12"/>
-      <c r="I303" s="12"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="14"/>
     </row>
     <row r="304" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H304" s="12"/>
-      <c r="I304" s="12"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="14"/>
     </row>
     <row r="305" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H305" s="12"/>
-      <c r="I305" s="12"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="14"/>
     </row>
     <row r="306" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H306" s="12"/>
-      <c r="I306" s="12"/>
+      <c r="H306" s="14"/>
+      <c r="I306" s="14"/>
     </row>
     <row r="307" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H307" s="12"/>
-      <c r="I307" s="12"/>
+      <c r="H307" s="14"/>
+      <c r="I307" s="14"/>
     </row>
     <row r="308" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H308" s="12"/>
-      <c r="I308" s="12"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="14"/>
     </row>
     <row r="309" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H309" s="12"/>
-      <c r="I309" s="12"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="14"/>
     </row>
     <row r="310" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H310" s="12"/>
-      <c r="I310" s="12"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="14"/>
     </row>
     <row r="311" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H311" s="12"/>
-      <c r="I311" s="12"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="14"/>
     </row>
     <row r="312" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H312" s="12"/>
-      <c r="I312" s="12"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="14"/>
     </row>
     <row r="313" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H313" s="12"/>
-      <c r="I313" s="12"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="14"/>
     </row>
     <row r="314" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H314" s="12"/>
-      <c r="I314" s="12"/>
+      <c r="H314" s="14"/>
+      <c r="I314" s="14"/>
     </row>
     <row r="315" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H315" s="12"/>
-      <c r="I315" s="12"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="14"/>
     </row>
     <row r="316" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H316" s="12"/>
-      <c r="I316" s="12"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="14"/>
     </row>
     <row r="317" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H317" s="12"/>
-      <c r="I317" s="12"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="14"/>
     </row>
     <row r="318" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H318" s="12"/>
-      <c r="I318" s="12"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="14"/>
     </row>
     <row r="319" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H319" s="12"/>
-      <c r="I319" s="12"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="14"/>
     </row>
     <row r="320" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H320" s="12"/>
-      <c r="I320" s="12"/>
+      <c r="H320" s="14"/>
+      <c r="I320" s="14"/>
     </row>
     <row r="321" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H321" s="12"/>
-      <c r="I321" s="12"/>
+      <c r="H321" s="14"/>
+      <c r="I321" s="14"/>
     </row>
     <row r="322" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H322" s="12"/>
-      <c r="I322" s="12"/>
+      <c r="H322" s="14"/>
+      <c r="I322" s="14"/>
     </row>
     <row r="323" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H323" s="12"/>
-      <c r="I323" s="12"/>
+      <c r="H323" s="14"/>
+      <c r="I323" s="14"/>
     </row>
     <row r="324" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H324" s="12"/>
-      <c r="I324" s="12"/>
+      <c r="H324" s="14"/>
+      <c r="I324" s="14"/>
     </row>
     <row r="325" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H325" s="12"/>
-      <c r="I325" s="12"/>
+      <c r="H325" s="14"/>
+      <c r="I325" s="14"/>
     </row>
     <row r="326" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H326" s="12"/>
-      <c r="I326" s="12"/>
+      <c r="H326" s="14"/>
+      <c r="I326" s="14"/>
     </row>
     <row r="327" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H327" s="12"/>
-      <c r="I327" s="12"/>
+      <c r="H327" s="14"/>
+      <c r="I327" s="14"/>
     </row>
     <row r="328" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H328" s="12"/>
-      <c r="I328" s="12"/>
+      <c r="H328" s="14"/>
+      <c r="I328" s="14"/>
     </row>
     <row r="329" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H329" s="12"/>
-      <c r="I329" s="12"/>
+      <c r="H329" s="14"/>
+      <c r="I329" s="14"/>
     </row>
     <row r="330" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H330" s="12"/>
-      <c r="I330" s="12"/>
+      <c r="H330" s="14"/>
+      <c r="I330" s="14"/>
     </row>
     <row r="331" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H331" s="12"/>
-      <c r="I331" s="12"/>
+      <c r="H331" s="14"/>
+      <c r="I331" s="14"/>
     </row>
     <row r="332" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H332" s="12"/>
-      <c r="I332" s="12"/>
+      <c r="H332" s="14"/>
+      <c r="I332" s="14"/>
     </row>
     <row r="333" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H333" s="12"/>
-      <c r="I333" s="12"/>
+      <c r="H333" s="14"/>
+      <c r="I333" s="14"/>
     </row>
     <row r="334" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H334" s="12"/>
-      <c r="I334" s="12"/>
+      <c r="H334" s="14"/>
+      <c r="I334" s="14"/>
     </row>
     <row r="335" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H335" s="12"/>
-      <c r="I335" s="12"/>
+      <c r="H335" s="14"/>
+      <c r="I335" s="14"/>
     </row>
     <row r="336" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H336" s="12"/>
-      <c r="I336" s="12"/>
+      <c r="H336" s="14"/>
+      <c r="I336" s="14"/>
     </row>
     <row r="337" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H337" s="12"/>
-      <c r="I337" s="12"/>
+      <c r="H337" s="14"/>
+      <c r="I337" s="14"/>
     </row>
     <row r="338" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H338" s="12"/>
-      <c r="I338" s="12"/>
+      <c r="H338" s="14"/>
+      <c r="I338" s="14"/>
     </row>
     <row r="339" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H339" s="12"/>
-      <c r="I339" s="12"/>
+      <c r="H339" s="14"/>
+      <c r="I339" s="14"/>
     </row>
     <row r="340" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H340" s="12"/>
-      <c r="I340" s="12"/>
+      <c r="H340" s="14"/>
+      <c r="I340" s="14"/>
     </row>
     <row r="341" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H341" s="12"/>
-      <c r="I341" s="12"/>
+      <c r="H341" s="14"/>
+      <c r="I341" s="14"/>
     </row>
     <row r="342" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H342" s="12"/>
-      <c r="I342" s="12"/>
+      <c r="H342" s="14"/>
+      <c r="I342" s="14"/>
     </row>
     <row r="343" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H343" s="12"/>
-      <c r="I343" s="12"/>
+      <c r="H343" s="14"/>
+      <c r="I343" s="14"/>
     </row>
     <row r="344" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H344" s="12"/>
-      <c r="I344" s="12"/>
+      <c r="H344" s="14"/>
+      <c r="I344" s="14"/>
     </row>
     <row r="345" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H345" s="12"/>
-      <c r="I345" s="12"/>
+      <c r="H345" s="14"/>
+      <c r="I345" s="14"/>
     </row>
     <row r="346" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H346" s="12"/>
-      <c r="I346" s="12"/>
+      <c r="H346" s="14"/>
+      <c r="I346" s="14"/>
     </row>
     <row r="347" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H347" s="12"/>
-      <c r="I347" s="12"/>
+      <c r="H347" s="14"/>
+      <c r="I347" s="14"/>
     </row>
     <row r="348" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H348" s="12"/>
-      <c r="I348" s="12"/>
+      <c r="H348" s="14"/>
+      <c r="I348" s="14"/>
     </row>
     <row r="349" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H349" s="12"/>
-      <c r="I349" s="12"/>
+      <c r="H349" s="14"/>
+      <c r="I349" s="14"/>
     </row>
     <row r="350" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H350" s="12"/>
-      <c r="I350" s="12"/>
+      <c r="H350" s="14"/>
+      <c r="I350" s="14"/>
     </row>
     <row r="351" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H351" s="12"/>
-      <c r="I351" s="12"/>
+      <c r="H351" s="14"/>
+      <c r="I351" s="14"/>
     </row>
     <row r="352" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H352" s="12"/>
-      <c r="I352" s="12"/>
+      <c r="H352" s="14"/>
+      <c r="I352" s="14"/>
     </row>
     <row r="353" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H353" s="12"/>
-      <c r="I353" s="12"/>
+      <c r="H353" s="14"/>
+      <c r="I353" s="14"/>
     </row>
     <row r="354" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H354" s="12"/>
-      <c r="I354" s="12"/>
+      <c r="H354" s="14"/>
+      <c r="I354" s="14"/>
     </row>
     <row r="355" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H355" s="12"/>
-      <c r="I355" s="12"/>
+      <c r="H355" s="14"/>
+      <c r="I355" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="416">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H349:I349"/>
+    <mergeCell ref="H350:I350"/>
+    <mergeCell ref="H351:I351"/>
+    <mergeCell ref="H352:I352"/>
+    <mergeCell ref="H353:I353"/>
+    <mergeCell ref="H354:I354"/>
+    <mergeCell ref="H355:I355"/>
+    <mergeCell ref="H326:I326"/>
+    <mergeCell ref="H327:I327"/>
+    <mergeCell ref="H328:I328"/>
+    <mergeCell ref="H329:I329"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="H331:I331"/>
+    <mergeCell ref="H332:I332"/>
+    <mergeCell ref="H333:I333"/>
+    <mergeCell ref="H334:I334"/>
+    <mergeCell ref="H335:I335"/>
+    <mergeCell ref="H336:I336"/>
+    <mergeCell ref="H337:I337"/>
+    <mergeCell ref="H338:I338"/>
+    <mergeCell ref="H339:I339"/>
+    <mergeCell ref="H340:I340"/>
+    <mergeCell ref="H341:I341"/>
+    <mergeCell ref="H342:I342"/>
+    <mergeCell ref="H343:I343"/>
+    <mergeCell ref="H344:I344"/>
+    <mergeCell ref="H345:I345"/>
+    <mergeCell ref="H346:I346"/>
+    <mergeCell ref="H347:I347"/>
+    <mergeCell ref="H348:I348"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="H310:I310"/>
+    <mergeCell ref="H311:I311"/>
+    <mergeCell ref="H312:I312"/>
+    <mergeCell ref="H313:I313"/>
+    <mergeCell ref="H314:I314"/>
+    <mergeCell ref="H315:I315"/>
+    <mergeCell ref="H316:I316"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="H319:I319"/>
+    <mergeCell ref="H320:I320"/>
+    <mergeCell ref="H321:I321"/>
+    <mergeCell ref="H322:I322"/>
+    <mergeCell ref="H323:I323"/>
+    <mergeCell ref="H324:I324"/>
+    <mergeCell ref="H325:I325"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="H294:I294"/>
+    <mergeCell ref="H295:I295"/>
+    <mergeCell ref="H296:I296"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="H302:I302"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="H275:I275"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="H281:I281"/>
+    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="H283:I283"/>
+    <mergeCell ref="H284:I284"/>
+    <mergeCell ref="H285:I285"/>
+    <mergeCell ref="H286:I286"/>
+    <mergeCell ref="H287:I287"/>
+    <mergeCell ref="H288:I288"/>
+    <mergeCell ref="H289:I289"/>
+    <mergeCell ref="H290:I290"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="H262:I262"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="H267:I267"/>
+    <mergeCell ref="H268:I268"/>
+    <mergeCell ref="H269:I269"/>
+    <mergeCell ref="H270:I270"/>
+    <mergeCell ref="H271:I271"/>
+    <mergeCell ref="H272:I272"/>
+    <mergeCell ref="H273:I273"/>
+    <mergeCell ref="H274:I274"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="H251:I251"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="H254:I254"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AS1:AT1"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H35:I35"/>
@@ -3620,367 +4305,43 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="H267:I267"/>
-    <mergeCell ref="H268:I268"/>
-    <mergeCell ref="H269:I269"/>
-    <mergeCell ref="H270:I270"/>
-    <mergeCell ref="H271:I271"/>
-    <mergeCell ref="H272:I272"/>
-    <mergeCell ref="H273:I273"/>
-    <mergeCell ref="H274:I274"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="H251:I251"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="H254:I254"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="H262:I262"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="H275:I275"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="H281:I281"/>
-    <mergeCell ref="H282:I282"/>
-    <mergeCell ref="H283:I283"/>
-    <mergeCell ref="H284:I284"/>
-    <mergeCell ref="H285:I285"/>
-    <mergeCell ref="H286:I286"/>
-    <mergeCell ref="H287:I287"/>
-    <mergeCell ref="H288:I288"/>
-    <mergeCell ref="H289:I289"/>
-    <mergeCell ref="H290:I290"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="H319:I319"/>
-    <mergeCell ref="H320:I320"/>
-    <mergeCell ref="H321:I321"/>
-    <mergeCell ref="H322:I322"/>
-    <mergeCell ref="H323:I323"/>
-    <mergeCell ref="H324:I324"/>
-    <mergeCell ref="H325:I325"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="H293:I293"/>
-    <mergeCell ref="H294:I294"/>
-    <mergeCell ref="H295:I295"/>
-    <mergeCell ref="H296:I296"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="H302:I302"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="H310:I310"/>
-    <mergeCell ref="H311:I311"/>
-    <mergeCell ref="H312:I312"/>
-    <mergeCell ref="H313:I313"/>
-    <mergeCell ref="H314:I314"/>
-    <mergeCell ref="H315:I315"/>
-    <mergeCell ref="H316:I316"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="H355:I355"/>
-    <mergeCell ref="H326:I326"/>
-    <mergeCell ref="H327:I327"/>
-    <mergeCell ref="H328:I328"/>
-    <mergeCell ref="H329:I329"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="H331:I331"/>
-    <mergeCell ref="H332:I332"/>
-    <mergeCell ref="H333:I333"/>
-    <mergeCell ref="H334:I334"/>
-    <mergeCell ref="H335:I335"/>
-    <mergeCell ref="H336:I336"/>
-    <mergeCell ref="H337:I337"/>
-    <mergeCell ref="H338:I338"/>
-    <mergeCell ref="H339:I339"/>
-    <mergeCell ref="H340:I340"/>
-    <mergeCell ref="H341:I341"/>
-    <mergeCell ref="H342:I342"/>
-    <mergeCell ref="H343:I343"/>
-    <mergeCell ref="H344:I344"/>
-    <mergeCell ref="H345:I345"/>
-    <mergeCell ref="H346:I346"/>
-    <mergeCell ref="H347:I347"/>
-    <mergeCell ref="H348:I348"/>
-    <mergeCell ref="H349:I349"/>
-    <mergeCell ref="H350:I350"/>
-    <mergeCell ref="H351:I351"/>
-    <mergeCell ref="H352:I352"/>
-    <mergeCell ref="H353:I353"/>
-    <mergeCell ref="H354:I354"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2025-26 free throws.xlsx
+++ b/2025-26 free throws.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31f55b0ab6c56897/Documents/Basketball/2025-2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="8_{ECB90B1E-1FBA-478A-BF69-C6D20A1A8A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCAFB8CC-3666-4F9E-8426-950193EC5899}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="8_{ECB90B1E-1FBA-478A-BF69-C6D20A1A8A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C2DAF5-0728-45AB-A494-FF1624825AB4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DA0CB4A1-1F9D-4426-9D49-D630E926C42B}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:AV355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,7 +982,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="16">
         <f>SUM(K3:K1000)/SUM(L3:L1000)</f>
-        <v>0.875</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F4" s="15"/>
       <c r="H4" s="13">
@@ -1116,7 +1116,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="18">
         <f>SUM(M3:M1000)/SUM(N3:N1000)</f>
-        <v>0.72222222222222221</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="F5" s="17"/>
       <c r="H5" s="13">
@@ -1384,7 +1384,7 @@
       <c r="D7" s="17"/>
       <c r="E7" s="16">
         <f>SUM(Q3:Q1003)/SUM(R3:R1003)</f>
-        <v>0.625</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="13">
@@ -1518,7 +1518,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="18">
         <f>SUM(S3:S1003)/SUM(T3:T1003)</f>
-        <v>0.60606060606060608</v>
+        <v>0.65853658536585369</v>
       </c>
       <c r="F8" s="17"/>
       <c r="H8" s="13">
@@ -1652,7 +1652,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="16">
         <f>SUM(U3:U1005)/SUM(V3:V1005)</f>
-        <v>0.71875</v>
+        <v>0.7</v>
       </c>
       <c r="F9" s="15"/>
       <c r="H9" s="13">
@@ -1786,7 +1786,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="16">
         <f>SUM(W3:W1006)/SUM(X3:X1006)</f>
-        <v>0.71875</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="F10" s="15"/>
       <c r="H10" s="13">
@@ -1920,7 +1920,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="16">
         <f>SUM(Y3:Y1007)/SUM(Z3:Z1007)</f>
-        <v>0.78787878787878785</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="F11" s="15"/>
       <c r="H11" s="13">
@@ -2054,7 +2054,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="16">
         <f>SUM(AA3:AA1008)/SUM(AB3:AB1008)</f>
-        <v>0.76470588235294112</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="F12" s="15"/>
       <c r="H12" s="13">
@@ -2188,7 +2188,7 @@
       <c r="D13" s="17"/>
       <c r="E13" s="16">
         <f t="shared" ref="E13:E23" si="4">SUM(K12:K1009)/SUM(L12:L1009)</f>
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="F13" s="15"/>
       <c r="H13" s="13">
@@ -2322,7 +2322,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F14" s="15"/>
       <c r="H14" s="13">
@@ -2456,11 +2456,131 @@
       <c r="D15" s="17"/>
       <c r="E15" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="13">
+        <f t="shared" ref="H15" si="7">SUM(K15,M15,O15,Q15,S15,U15,W15,Y15,AA15,AC15,AE15,AG15,AI15,AK15,AM15,AO15,AQ15,AS15,AU15)/SUM(L15,N15,P15,R15,T15,V15,X15,Z15,AB15,AD15,AF15,AH15,AJ15,AL15,AN15,AP15,AR15,AT15,AV15)</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="8">
+        <v>45932</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>4</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>4</v>
+      </c>
+      <c r="AD15">
+        <v>4</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AF15">
+        <v>4</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <v>4</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AJ15">
+        <v>4</v>
+      </c>
+      <c r="AK15">
+        <v>3</v>
+      </c>
+      <c r="AL15">
+        <v>4</v>
+      </c>
+      <c r="AM15">
+        <v>3</v>
+      </c>
+      <c r="AN15">
+        <v>4</v>
+      </c>
+      <c r="AO15">
+        <v>4</v>
+      </c>
+      <c r="AP15">
+        <v>4</v>
+      </c>
+      <c r="AQ15">
+        <v>4</v>
+      </c>
+      <c r="AR15">
+        <v>4</v>
+      </c>
+      <c r="AS15">
+        <v>3</v>
+      </c>
+      <c r="AT15">
+        <v>4</v>
+      </c>
+      <c r="AU15">
+        <v>2</v>
+      </c>
+      <c r="AV15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -2468,43 +2588,271 @@
         <v>26</v>
       </c>
       <c r="D16" s="17"/>
-      <c r="E16" s="16" t="e">
+      <c r="E16" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.375</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="13">
+        <f t="shared" ref="H16" si="8">SUM(K16,M16,O16,Q16,S16,U16,W16,Y16,AA16,AC16,AE16,AG16,AI16,AK16,AM16,AO16,AQ16,AS16,AU16)/SUM(L16,N16,P16,R16,T16,V16,X16,Z16,AB16,AD16,AF16,AH16,AJ16,AL16,AN16,AP16,AR16,AT16,AV16)</f>
+        <v>0.60526315789473684</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="8">
+        <v>45932</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>2</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>2</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>2</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <v>2</v>
+      </c>
+      <c r="AR16">
+        <v>2</v>
+      </c>
+      <c r="AS16">
+        <v>2</v>
+      </c>
+      <c r="AT16">
+        <v>2</v>
+      </c>
+      <c r="AU16">
+        <v>2</v>
+      </c>
+      <c r="AV16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="16" t="e">
+      <c r="E17" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="13">
+        <f t="shared" ref="H17" si="9">SUM(K17,M17,O17,Q17,S17,U17,W17,Y17,AA17,AC17,AE17,AG17,AI17,AK17,AM17,AO17,AQ17,AS17,AU17)/SUM(L17,N17,P17,R17,T17,V17,X17,Z17,AB17,AD17,AF17,AH17,AJ17,AL17,AN17,AP17,AR17,AT17,AV17)</f>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="8">
+        <v>45932</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <v>2</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>2</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="16" t="e">
+      <c r="E18" s="16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="15"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="17" t="s">
         <v>29</v>
@@ -2518,7 +2866,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="17" t="s">
         <v>10</v>
@@ -2532,7 +2880,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="17" t="s">
         <v>11</v>
@@ -2546,7 +2894,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="17" t="s">
         <v>12</v>
@@ -2560,7 +2908,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="19" t="s">
         <v>13</v>
@@ -2574,21 +2922,21 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="16" t="e">
-        <f t="shared" ref="E24" si="7">SUM(O21:O1020)/SUM(P21:P1020)</f>
+        <f t="shared" ref="E24" si="10">SUM(O21:O1020)/SUM(P21:P1020)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="15"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2944,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -2604,7 +2952,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -2612,23 +2960,23 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.3">
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
